--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/roi-calculator.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/roi-calculator.xlsx
@@ -221,10 +221,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -232,62 +232,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -609,7 +553,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -633,7 +577,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 06, 2025</t>
+          <t>November 13, 2025</t>
         </is>
       </c>
     </row>
@@ -652,7 +596,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -675,9 +619,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -957,7 +901,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1004,7 +948,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1050,7 +994,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1096,7 +1040,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1142,7 +1086,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1188,7 +1132,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1234,7 +1178,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1280,7 +1224,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1326,7 +1270,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1372,7 +1316,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1418,7 +1362,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1464,7 +1408,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1510,7 +1454,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1556,7 +1500,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1602,7 +1546,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1648,7 +1592,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1694,7 +1638,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1740,7 +1684,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1786,7 +1730,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1832,7 +1776,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1878,7 +1822,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1924,7 +1868,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -1970,7 +1914,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1">
+    <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Input</t>
@@ -2016,7 +1960,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="26" customHeight="1">
+    <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>Input</t>
@@ -2062,7 +2006,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="26" customHeight="1">
+    <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2108,7 +2052,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="26" customHeight="1">
+    <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2154,7 +2098,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="26" customHeight="1">
+    <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2200,7 +2144,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="26" customHeight="1">
+    <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2246,7 +2190,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="26" customHeight="1">
+    <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2292,7 +2236,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="26" customHeight="1">
+    <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2338,7 +2282,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="26" customHeight="1">
+    <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2383,7 +2327,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="26" customHeight="1">
+    <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2428,7 +2372,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="26" customHeight="1">
+    <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2473,7 +2417,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="26" customHeight="1">
+    <row r="39">
       <c r="A39" s="7" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2518,7 +2462,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="26" customHeight="1">
+    <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2563,7 +2507,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="26" customHeight="1">
+    <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2608,7 +2552,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="26" customHeight="1">
+    <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2653,7 +2597,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="26" customHeight="1">
+    <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
           <t>Calculation</t>
@@ -2698,7 +2642,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="26" customHeight="1">
+    <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -2743,7 +2687,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="26" customHeight="1">
+    <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -2788,7 +2732,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="26" customHeight="1">
+    <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -2833,7 +2777,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="26" customHeight="1">
+    <row r="47">
       <c r="A47" s="7" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -2878,7 +2822,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="26" customHeight="1">
+    <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -2923,7 +2867,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="26" customHeight="1">
+    <row r="49">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -2968,7 +2912,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="26" customHeight="1">
+    <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -3013,7 +2957,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="26" customHeight="1">
+    <row r="51">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -3058,7 +3002,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="26" customHeight="1">
+    <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -3103,7 +3047,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="26" customHeight="1">
+    <row r="53">
       <c r="A53" s="7" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -3148,7 +3092,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="26" customHeight="1">
+    <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
           <t>Summary</t>
@@ -3193,7 +3137,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="26" customHeight="1">
+    <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3238,7 +3182,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="26" customHeight="1">
+    <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3283,7 +3227,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="26" customHeight="1">
+    <row r="57">
       <c r="A57" s="7" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3328,7 +3272,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="26" customHeight="1">
+    <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3373,7 +3317,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="26" customHeight="1">
+    <row r="59">
       <c r="A59" s="7" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3418,7 +3362,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="26" customHeight="1">
+    <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3463,7 +3407,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="26" customHeight="1">
+    <row r="61">
       <c r="A61" s="7" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3508,7 +3452,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" ht="26" customHeight="1">
+    <row r="62">
       <c r="A62" s="6" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3553,7 +3497,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" ht="26" customHeight="1">
+    <row r="63">
       <c r="A63" s="7" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3598,7 +3542,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" ht="26" customHeight="1">
+    <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3643,7 +3587,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" ht="26" customHeight="1">
+    <row r="65">
       <c r="A65" s="7" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3688,7 +3632,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" ht="26" customHeight="1">
+    <row r="66">
       <c r="A66" s="6" t="inlineStr">
         <is>
           <t>Assumptions</t>
@@ -3733,7 +3677,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" ht="26" customHeight="1">
+    <row r="67">
       <c r="A67" s="7" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -3778,7 +3722,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" ht="26" customHeight="1">
+    <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -3823,7 +3767,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" ht="26" customHeight="1">
+    <row r="69">
       <c r="A69" s="7" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -3868,7 +3812,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" ht="26" customHeight="1">
+    <row r="70">
       <c r="A70" s="6" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -3913,7 +3857,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" ht="26" customHeight="1">
+    <row r="71">
       <c r="A71" s="7" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -3958,7 +3902,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" ht="26" customHeight="1">
+    <row r="72">
       <c r="A72" s="6" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -4003,7 +3947,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" ht="26" customHeight="1">
+    <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -4048,7 +3992,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" ht="26" customHeight="1">
+    <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
           <t>Risk</t>
@@ -4093,7 +4037,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" ht="26" customHeight="1">
+    <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
           <t>Sensitivity</t>
@@ -4138,7 +4082,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" ht="26" customHeight="1">
+    <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
           <t>Sensitivity</t>
@@ -4183,7 +4127,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" ht="26" customHeight="1">
+    <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
           <t>Sensitivity</t>
@@ -4228,7 +4172,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" ht="26" customHeight="1">
+    <row r="78">
       <c r="A78" s="6" t="inlineStr">
         <is>
           <t>Sensitivity</t>
@@ -4273,7 +4217,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" ht="26" customHeight="1">
+    <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
           <t>Sensitivity</t>
@@ -4318,7 +4262,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" ht="26" customHeight="1">
+    <row r="80">
       <c r="A80" s="6" t="inlineStr">
         <is>
           <t>Sensitivity</t>
